--- a/TDStore/ATuongBN.xlsx
+++ b/TDStore/ATuongBN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3630B22E-3A60-43BE-9009-712BE3A919B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336B8D9-36B3-468A-B8C1-252206AF8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Tên</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>khách trả lại máy +  300k</t>
+  </si>
+  <si>
+    <t>Đã ck 6500000</t>
+  </si>
+  <si>
+    <t>T470</t>
   </si>
 </sst>
 </file>
@@ -85,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -221,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,6 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,22 +561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="6" width="11.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -574,9 +592,10 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="4"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -587,28 +606,34 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>B2*D2</f>
-        <v>5000000</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+        <f>(C2-B2)/2+B2</f>
+        <v>2500000</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="21">
         <v>5400000</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="21">
+        <v>7500000</v>
+      </c>
+      <c r="D3" s="22">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="0">B3*D3</f>
-        <v>5400000</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E7" si="0">(C3-B3)/2+B3</f>
+        <v>6450000</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -620,53 +645,53 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>5000000</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+        <v>2500000</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="27">
         <v>5500000</v>
       </c>
-      <c r="C5" s="21">
-        <v>6500000</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
         <v>1</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>2750000</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21">
+        <v>5500000</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5500000</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>5500000</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21">
-        <v>5500000</v>
-      </c>
-      <c r="C6" s="21">
-        <v>5500000</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <f t="shared" si="0"/>
-        <v>5500000</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -679,37 +704,48 @@
       <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>6700000</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
+      <c r="B9" s="2">
+        <f>SUM(B2:B8)</f>
+        <v>36100000</v>
+      </c>
       <c r="C9" s="2">
         <f>SUM(C2:C7)</f>
-        <v>18700000</v>
+        <v>19700000</v>
       </c>
       <c r="E9" s="9">
         <f>SUM(E2:E7)</f>
-        <v>33100000</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>26400000</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
@@ -723,39 +759,41 @@
       <c r="E11" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="E15" s="14">
         <f>SUM(E12:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="23" t="s">
         <v>5</v>
       </c>
@@ -764,9 +802,10 @@
       <c r="D18" s="16"/>
       <c r="E18" s="17">
         <f>E9-E15</f>
-        <v>33100000</v>
-      </c>
-      <c r="F18" s="18"/>
+        <v>26400000</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/TDStore/ATuongBN.xlsx
+++ b/TDStore/ATuongBN.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1336B8D9-36B3-468A-B8C1-252206AF8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4486B79-5DD6-4386-8BDE-45EC39BF9AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="27.2.24" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Tên</t>
   </si>
@@ -69,13 +70,28 @@
     <t>Đã ck</t>
   </si>
   <si>
-    <t>khách trả lại máy +  300k</t>
-  </si>
-  <si>
     <t>Đã ck 6500000</t>
   </si>
   <si>
     <t>T470</t>
+  </si>
+  <si>
+    <t>T580 i7/8/256/15,6FHD</t>
+  </si>
+  <si>
+    <t>Giá Gốc</t>
+  </si>
+  <si>
+    <t>Lãi</t>
+  </si>
+  <si>
+    <t>Gốc + Lãi</t>
+  </si>
+  <si>
+    <t>Dell N7306 i5/8/256</t>
+  </si>
+  <si>
+    <t>Ngày 27.2.24</t>
   </si>
 </sst>
 </file>
@@ -233,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -269,18 +285,19 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,22 +578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="6" width="11.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,7 +612,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -611,7 +628,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -629,11 +646,11 @@
         <v>6450000</v>
       </c>
       <c r="F3" s="21"/>
-      <c r="G3" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G3" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -649,27 +666,27 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>5500000</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28">
+      <c r="C5" s="25"/>
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
         <v>2750000</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -691,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -713,103 +730,291 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>3000000</v>
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="2">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2">
         <f>SUM(B2:B8)</f>
         <v>36100000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C12" s="2">
         <f>SUM(C2:C7)</f>
         <v>19700000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E12" s="9">
         <f>SUM(E2:E7)</f>
         <v>26400000</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="E15" s="14">
-        <f>SUM(E12:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="23" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="E18" s="14">
+        <f>SUM(E15:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17">
-        <f>E9-E15</f>
+      <c r="B21" s="28"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17">
+        <f>E12-E18</f>
         <v>26400000</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C647C37-EA04-418B-A0F3-D633739DA77F}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2">
+        <f>SUM(B2:B6)</f>
+        <v>25500000</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUM(E2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="E14" s="14">
+        <f>SUM(E11:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17">
+        <f>E8-E14</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TDStore/ATuongBN.xlsx
+++ b/TDStore/ATuongBN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4486B79-5DD6-4386-8BDE-45EC39BF9AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2EF02-235D-4888-B133-D71A253539B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Tên</t>
   </si>
@@ -85,13 +85,31 @@
     <t>Lãi</t>
   </si>
   <si>
-    <t>Gốc + Lãi</t>
-  </si>
-  <si>
     <t>Dell N7306 i5/8/256</t>
   </si>
   <si>
     <t>Ngày 27.2.24</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Đã ck 3.5.24</t>
+  </si>
+  <si>
+    <t>Tiền đã nhận</t>
+  </si>
+  <si>
+    <t>Dell latitude 5531 i5/16/512</t>
+  </si>
+  <si>
+    <t>X1 carbon gen 4 i5/8/128</t>
+  </si>
+  <si>
+    <t>Đã ck 28.2.24</t>
+  </si>
+  <si>
+    <t>7490C i5/8/256 HD</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -249,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,13 +315,19 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +853,10 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="19"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17">
@@ -847,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C647C37-EA04-418B-A0F3-D633739DA77F}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +888,7 @@
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -876,10 +906,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -893,7 +923,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>5000000</v>
@@ -901,13 +931,20 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="31">
         <v>3000000</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31">
+        <v>3600000</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -919,34 +956,42 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="31">
         <v>6500000</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="33" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13500000</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2">
-        <f>SUM(B2:B6)</f>
-        <v>25500000</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C2)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <f>SUM(E2:E2)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
+      <c r="A8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="31">
+        <v>3000000</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31">
+        <v>3500000</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,42 +999,50 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="2">
+        <f>SUM(B2:B8)</f>
+        <v>42000000</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUM(C2:C2)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f>SUM(E2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="E14" s="14">
-        <f>SUM(E11:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
@@ -999,22 +1052,40 @@
       <c r="A16" s="7"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="E17" s="14">
+        <f>SUM(E14:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17">
-        <f>E8-E14</f>
+      <c r="B20" s="29"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17">
+        <f>E11-E17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TDStore/ATuongBN.xlsx
+++ b/TDStore/ATuongBN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E2EF02-235D-4888-B133-D71A253539B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B08A3F-7615-45BC-A770-7A4A198C857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Tên</t>
   </si>
@@ -79,9 +79,6 @@
     <t>T580 i7/8/256/15,6FHD</t>
   </si>
   <si>
-    <t>Giá Gốc</t>
-  </si>
-  <si>
     <t>Lãi</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>7490C i5/8/256 HD</t>
+  </si>
+  <si>
+    <t>Đã ck 12tr5 7.3.24</t>
+  </si>
+  <si>
+    <t>Giá giao a Tưởng</t>
+  </si>
+  <si>
+    <t>T480s</t>
   </si>
 </sst>
 </file>
@@ -316,18 +322,18 @@
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,19 +617,19 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="2" max="3" width="14.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="5" max="6" width="11.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -658,7 +664,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -680,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -696,7 +702,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
@@ -716,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -738,7 +744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -760,7 +766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -769,19 +775,19 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="2">
         <f>SUM(B2:B8)</f>
@@ -800,11 +806,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -821,19 +827,19 @@
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="E18" s="14">
         <f>SUM(E15:E17)</f>
@@ -844,19 +850,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="19"/>
       <c r="D21" s="16"/>
       <c r="E21" s="17">
@@ -880,39 +886,40 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.46484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -921,32 +928,32 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>5000000</v>
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>3000000</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="31">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29">
         <v>3600000</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -955,58 +962,68 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="31">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="29">
         <v>6500000</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="29">
+        <v>12500000</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29">
+        <v>3500000</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2">
-        <v>13500000</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="31">
-        <v>3000000</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31">
-        <v>3500000</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5300000</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
-        <f>SUM(B2:B8)</f>
-        <v>42000000</v>
+        <f>SUM(B2:B9)</f>
+        <v>46300000</v>
       </c>
       <c r="C11" s="2">
         <f>SUM(C2:C2)</f>
@@ -1020,11 +1037,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1040,19 +1057,19 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="E17" s="14">
         <f>SUM(E14:E16)</f>
@@ -1062,19 +1079,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="29"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="19"/>
       <c r="D20" s="16"/>
       <c r="E20" s="17">

--- a/TDStore/ATuongBN.xlsx
+++ b/TDStore/ATuongBN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B08A3F-7615-45BC-A770-7A4A198C857C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FEB145-9214-4EF0-A079-43E45B840EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Tên</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>T480s</t>
+  </si>
+  <si>
+    <t>Đã Ck 9.3.24</t>
   </si>
 </sst>
 </file>
@@ -620,16 +623,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
-    <col min="5" max="6" width="11.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="2" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -648,7 +651,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -664,7 +667,7 @@
       </c>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
@@ -686,7 +689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -702,7 +705,7 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
@@ -722,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
@@ -744,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -766,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -775,19 +778,19 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="2">
         <f>SUM(B2:B8)</f>
@@ -806,11 +809,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
@@ -827,19 +830,19 @@
       <c r="F14" s="12"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="E18" s="14">
         <f>SUM(E15:E17)</f>
@@ -850,15 +853,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>5</v>
       </c>
@@ -886,20 +889,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.46484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -919,16 +922,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="29">
         <v>5000000</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -937,7 +945,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
@@ -953,16 +961,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="29">
         <v>6000000</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>18</v>
       </c>
@@ -976,7 +989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
@@ -1006,7 +1019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
@@ -1015,11 +1028,11 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="2">
         <f>SUM(B2:B9)</f>
@@ -1037,11 +1050,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
@@ -1057,19 +1070,19 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="E17" s="14">
         <f>SUM(E14:E16)</f>
@@ -1079,15 +1092,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>5</v>
       </c>
